--- a/Code/Results/Cases/Case_0_72/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_72/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.04916151231870458</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.5677774433441414</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.4012367845884057</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>7.142239845595611</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.002427034553648504</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>3.548038381591169</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.07413362463177</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.04341033527549598</v>
+      </c>
+      <c r="D3">
+        <v>0.5136172053626638</v>
+      </c>
+      <c r="E3">
+        <v>0.3494164050773492</v>
+      </c>
+      <c r="F3">
+        <v>6.514203621498666</v>
+      </c>
+      <c r="G3">
+        <v>0.002449796199730756</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>3.153291104659161</v>
+      </c>
+      <c r="N3">
+        <v>1.035030300472101</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.03994057243734517</v>
+      </c>
+      <c r="D4">
+        <v>0.4812680072991213</v>
+      </c>
+      <c r="E4">
+        <v>0.3178054814050029</v>
+      </c>
+      <c r="F4">
+        <v>6.139196567970941</v>
+      </c>
+      <c r="G4">
+        <v>0.002464340089464602</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2.914020246558721</v>
+      </c>
+      <c r="N4">
+        <v>1.011488043843372</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.03854066960273883</v>
+      </c>
+      <c r="D5">
+        <v>0.4682962121918592</v>
+      </c>
+      <c r="E5">
+        <v>0.3049685574642211</v>
+      </c>
+      <c r="F5">
+        <v>5.988861242103326</v>
+      </c>
+      <c r="G5">
+        <v>0.002470411753379727</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>2.81722770907524</v>
+      </c>
+      <c r="N5">
+        <v>1.002014147648765</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.03830902589457708</v>
+      </c>
+      <c r="D6">
+        <v>0.4661545076492928</v>
+      </c>
+      <c r="E6">
+        <v>0.3028394965466674</v>
+      </c>
+      <c r="F6">
+        <v>5.964042928395372</v>
+      </c>
+      <c r="G6">
+        <v>0.002471428759104131</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>2.80119646683869</v>
+      </c>
+      <c r="N6">
+        <v>1.00044831491843</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.03992163776085533</v>
+      </c>
+      <c r="D7">
+        <v>0.4810922334545467</v>
+      </c>
+      <c r="E7">
+        <v>0.3176321861259623</v>
+      </c>
+      <c r="F7">
+        <v>6.137159276463876</v>
+      </c>
+      <c r="G7">
+        <v>0.002464421384719498</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2.912712072536522</v>
+      </c>
+      <c r="N7">
+        <v>1.011359787622865</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.04716487396250102</v>
+      </c>
+      <c r="D8">
+        <v>0.548904607780031</v>
+      </c>
+      <c r="E8">
+        <v>0.3833216314212819</v>
+      </c>
+      <c r="F8">
+        <v>6.923376452069476</v>
+      </c>
+      <c r="G8">
+        <v>0.002434766109231679</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>3.411242347755575</v>
+      </c>
+      <c r="N8">
+        <v>1.060555118666912</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.06192464472601955</v>
+      </c>
+      <c r="D9">
+        <v>0.689883056879637</v>
+      </c>
+      <c r="E9">
+        <v>0.5141371987866847</v>
+      </c>
+      <c r="F9">
+        <v>8.55824131466693</v>
+      </c>
+      <c r="G9">
+        <v>0.002381022975056575</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>4.416838752510216</v>
+      </c>
+      <c r="N9">
+        <v>1.160644491307778</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.07320917427213658</v>
+      </c>
+      <c r="D10">
+        <v>0.7995517239385208</v>
+      </c>
+      <c r="E10">
+        <v>0.6120067740129826</v>
+      </c>
+      <c r="F10">
+        <v>9.829438797432715</v>
+      </c>
+      <c r="G10">
+        <v>0.002344083891035009</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>5.177733857590738</v>
+      </c>
+      <c r="N10">
+        <v>1.236274983629528</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.07846291946574979</v>
+      </c>
+      <c r="D11">
+        <v>0.8510576835116126</v>
+      </c>
+      <c r="E11">
+        <v>0.6570437583399809</v>
+      </c>
+      <c r="F11">
+        <v>10.4261504469024</v>
+      </c>
+      <c r="G11">
+        <v>0.002327798653060856</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>5.52989229176697</v>
+      </c>
+      <c r="N11">
+        <v>1.271114002641951</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.08047187931261135</v>
+      </c>
+      <c r="D12">
+        <v>0.8708204431474655</v>
+      </c>
+      <c r="E12">
+        <v>0.6741840542691335</v>
+      </c>
+      <c r="F12">
+        <v>10.65504806915311</v>
+      </c>
+      <c r="G12">
+        <v>0.0023217034894235</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>5.664220140925153</v>
+      </c>
+      <c r="N12">
+        <v>1.28436711218626</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.08003831098865533</v>
+      </c>
+      <c r="D13">
+        <v>0.8665522427224914</v>
+      </c>
+      <c r="E13">
+        <v>0.6704885744405544</v>
+      </c>
+      <c r="F13">
+        <v>10.6056155246547</v>
+      </c>
+      <c r="G13">
+        <v>0.002323013050564238</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>5.635245160953986</v>
+      </c>
+      <c r="N13">
+        <v>1.281510168358921</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.07862779431192735</v>
+      </c>
+      <c r="D14">
+        <v>0.8526782390768517</v>
+      </c>
+      <c r="E14">
+        <v>0.658452111728451</v>
+      </c>
+      <c r="F14">
+        <v>10.44492144272135</v>
+      </c>
+      <c r="G14">
+        <v>0.002327295779912493</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>5.540923379155714</v>
+      </c>
+      <c r="N14">
+        <v>1.272203146945287</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.07776641652375815</v>
+      </c>
+      <c r="D15">
+        <v>0.8442144922441912</v>
+      </c>
+      <c r="E15">
+        <v>0.6510909622947167</v>
+      </c>
+      <c r="F15">
+        <v>10.34688284263808</v>
+      </c>
+      <c r="G15">
+        <v>0.00232992832507273</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>5.483278610704247</v>
+      </c>
+      <c r="N15">
+        <v>1.266510121561566</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.07286843345359273</v>
+      </c>
+      <c r="D16">
+        <v>0.7962204082074891</v>
+      </c>
+      <c r="E16">
+        <v>0.609074847682038</v>
+      </c>
+      <c r="F16">
+        <v>9.790837122149753</v>
+      </c>
+      <c r="G16">
+        <v>0.002345158363378828</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>5.154849629517855</v>
+      </c>
+      <c r="N16">
+        <v>1.234006729183903</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.06989599886890119</v>
+      </c>
+      <c r="D17">
+        <v>0.7672096685120096</v>
+      </c>
+      <c r="E17">
+        <v>0.5834393454911293</v>
+      </c>
+      <c r="F17">
+        <v>9.454638977950424</v>
+      </c>
+      <c r="G17">
+        <v>0.002354632330369889</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>4.954985261159322</v>
+      </c>
+      <c r="N17">
+        <v>1.214176670605298</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.06819752170906668</v>
+      </c>
+      <c r="D18">
+        <v>0.7506739965182305</v>
+      </c>
+      <c r="E18">
+        <v>0.5687422630685575</v>
+      </c>
+      <c r="F18">
+        <v>9.26298382484913</v>
+      </c>
+      <c r="G18">
+        <v>0.002360130494781565</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>4.840588626760308</v>
+      </c>
+      <c r="N18">
+        <v>1.202811951593389</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.06762430470966763</v>
+      </c>
+      <c r="D19">
+        <v>0.7451003967612451</v>
+      </c>
+      <c r="E19">
+        <v>0.5637739517551807</v>
+      </c>
+      <c r="F19">
+        <v>9.198379287267471</v>
+      </c>
+      <c r="G19">
+        <v>0.002362000576757266</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>4.801948963045305</v>
+      </c>
+      <c r="N19">
+        <v>1.198971161119971</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.07021124642589882</v>
+      </c>
+      <c r="D20">
+        <v>0.770282149037314</v>
+      </c>
+      <c r="E20">
+        <v>0.5861632623476396</v>
+      </c>
+      <c r="F20">
+        <v>9.490248137054778</v>
+      </c>
+      <c r="G20">
+        <v>0.002353618760233393</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>4.976202452389202</v>
+      </c>
+      <c r="N20">
+        <v>1.216283385699512</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.07904155037087435</v>
+      </c>
+      <c r="D21">
+        <v>0.8567461350626786</v>
+      </c>
+      <c r="E21">
+        <v>0.6619850872541519</v>
+      </c>
+      <c r="F21">
+        <v>10.49203913157424</v>
+      </c>
+      <c r="G21">
+        <v>0.002326035916370597</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>5.568600668142381</v>
+      </c>
+      <c r="N21">
+        <v>1.274935224246349</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.08492734874332086</v>
+      </c>
+      <c r="D22">
+        <v>0.9147760910219631</v>
+      </c>
+      <c r="E22">
+        <v>0.7120450894339569</v>
+      </c>
+      <c r="F22">
+        <v>11.16402857745049</v>
+      </c>
+      <c r="G22">
+        <v>0.002308425406150036</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>5.961495083952286</v>
+      </c>
+      <c r="N22">
+        <v>1.313618265134778</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.08177472947740227</v>
+      </c>
+      <c r="D23">
+        <v>0.8836561165535386</v>
+      </c>
+      <c r="E23">
+        <v>0.6852767115648675</v>
+      </c>
+      <c r="F23">
+        <v>10.80369577592757</v>
+      </c>
+      <c r="G23">
+        <v>0.002317787355297189</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>5.751238201402089</v>
+      </c>
+      <c r="N23">
+        <v>1.292941007981995</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.07006869072716881</v>
+      </c>
+      <c r="D24">
+        <v>0.768892637157137</v>
+      </c>
+      <c r="E24">
+        <v>0.5849316523568149</v>
+      </c>
+      <c r="F24">
+        <v>9.474144181510155</v>
+      </c>
+      <c r="G24">
+        <v>0.002354076834901435</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>4.966608585741369</v>
+      </c>
+      <c r="N24">
+        <v>1.215330827992204</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.05786216398911392</v>
+      </c>
+      <c r="D25">
+        <v>0.6507679386425593</v>
+      </c>
+      <c r="E25">
+        <v>0.4784807826000019</v>
+      </c>
+      <c r="F25">
+        <v>8.104682273898845</v>
+      </c>
+      <c r="G25">
+        <v>0.002395104006124253</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>4.141305538014194</v>
+      </c>
+      <c r="N25">
+        <v>1.133191984562302</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
